--- a/PRECIOS CLIENTE ESPECIAL.xlsx
+++ b/PRECIOS CLIENTE ESPECIAL.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERFILES\MAAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERFILES\MAAM\Desktop\sistemas inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="cliente1" sheetId="2" r:id="rId2"/>
+    <sheet name="cliente2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>CUARTO LAGER XX</t>
   </si>
@@ -212,18 +214,50 @@
     <t>PRODUCTO</t>
   </si>
   <si>
-    <t>PRECIO ESPECIAL</t>
-  </si>
-  <si>
     <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENTE2</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>id_cliente1</t>
+  </si>
+  <si>
+    <t>id_producto1</t>
+  </si>
+  <si>
+    <t>precio1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,8 +285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,13 +309,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D61" totalsRowShown="0">
-  <autoFilter ref="A1:D61"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="4" name="CLIENTE"/>
-    <tableColumn id="3" name="PRECIO ESPECIAL"/>
+    <tableColumn id="3" name="32%"/>
+    <tableColumn id="6" name="CLIENTE2"/>
+    <tableColumn id="5" name="33%"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,19 +595,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -569,498 +616,3976 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>187</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>149</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J2">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N2">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>187</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>149</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J3">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N3">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>187</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>149</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+      <c r="M4">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N4">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>149</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J5">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N5">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>187</v>
+      </c>
+      <c r="D6">
+        <v>212</v>
+      </c>
+      <c r="E6">
+        <v>149</v>
+      </c>
+      <c r="F6">
+        <v>209</v>
+      </c>
+      <c r="I6">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J6">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+      <c r="M6">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N6">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>149</v>
+      </c>
+      <c r="I7">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J7">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N7">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <v>228</v>
+      </c>
+      <c r="E8">
+        <v>149</v>
+      </c>
+      <c r="F8">
+        <v>225</v>
+      </c>
+      <c r="I8">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J8">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M8">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N8">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>228</v>
+      </c>
+      <c r="E9">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>225</v>
+      </c>
+      <c r="I9">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J9">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M9">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N9">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>228</v>
+      </c>
+      <c r="E10">
+        <v>149</v>
+      </c>
+      <c r="F10">
+        <v>225</v>
+      </c>
+      <c r="I10">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J10">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M10">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N10">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>228</v>
+      </c>
+      <c r="E11">
+        <v>149</v>
+      </c>
+      <c r="F11">
+        <v>225</v>
+      </c>
+      <c r="I11">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J11">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M11">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N11">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>248</v>
+      </c>
+      <c r="E12">
+        <v>149</v>
+      </c>
+      <c r="F12">
+        <v>245</v>
+      </c>
+      <c r="I12">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J12">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>248</v>
+      </c>
+      <c r="M12">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N12">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>187</v>
+      </c>
+      <c r="D13">
+        <v>219</v>
+      </c>
+      <c r="E13">
+        <v>149</v>
+      </c>
+      <c r="F13">
+        <v>216</v>
+      </c>
+      <c r="I13">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J13">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>219</v>
+      </c>
+      <c r="M13">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N13">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>149</v>
+      </c>
+      <c r="F14">
+        <v>226</v>
+      </c>
+      <c r="I14">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J14">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+      <c r="M14">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N14">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>187</v>
+      </c>
+      <c r="D15">
+        <v>230</v>
+      </c>
+      <c r="E15">
+        <v>149</v>
+      </c>
+      <c r="F15">
+        <v>226</v>
+      </c>
+      <c r="I15">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J15">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+      <c r="M15">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N15">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>187</v>
+      </c>
+      <c r="D16">
+        <v>269</v>
+      </c>
+      <c r="E16">
+        <v>149</v>
+      </c>
+      <c r="F16">
+        <v>265</v>
+      </c>
+      <c r="I16">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J16">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>269</v>
+      </c>
+      <c r="M16">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N16">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>187</v>
+      </c>
+      <c r="D17">
+        <v>230</v>
+      </c>
+      <c r="E17">
+        <v>149</v>
+      </c>
+      <c r="F17">
+        <v>226</v>
+      </c>
+      <c r="I17">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J17">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+      <c r="M17">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N17">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>212</v>
+      </c>
+      <c r="E18">
+        <v>149</v>
+      </c>
+      <c r="F18">
+        <v>209</v>
+      </c>
+      <c r="I18">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J18">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+      <c r="M18">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N18">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>187</v>
+      </c>
+      <c r="D19">
+        <v>212</v>
+      </c>
+      <c r="E19">
+        <v>149</v>
+      </c>
+      <c r="F19">
+        <v>209</v>
+      </c>
+      <c r="I19">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J19">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+      <c r="M19">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N19">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>187</v>
+      </c>
+      <c r="D20">
+        <v>212</v>
+      </c>
+      <c r="E20">
+        <v>149</v>
+      </c>
+      <c r="F20">
+        <v>209</v>
+      </c>
+      <c r="I20">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J20">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+      <c r="M20">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N20">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>187</v>
+      </c>
+      <c r="D21">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <v>149</v>
+      </c>
+      <c r="F21">
+        <v>177</v>
+      </c>
+      <c r="I21">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J21">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>179</v>
+      </c>
+      <c r="M21">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N21">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>29</v>
+      </c>
+      <c r="O21">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>187</v>
+      </c>
+      <c r="D22">
+        <v>232</v>
+      </c>
+      <c r="E22">
+        <v>149</v>
+      </c>
+      <c r="F22">
+        <v>228</v>
+      </c>
+      <c r="I22">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J22">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>232</v>
+      </c>
+      <c r="M22">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N22">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>187</v>
+      </c>
+      <c r="D23">
+        <v>261</v>
+      </c>
+      <c r="E23">
+        <v>149</v>
+      </c>
+      <c r="F23">
+        <v>257</v>
+      </c>
+      <c r="I23">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+      <c r="M23">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N23">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>31</v>
+      </c>
+      <c r="O23">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>187</v>
+      </c>
+      <c r="D24">
+        <v>261</v>
+      </c>
+      <c r="E24">
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <v>257</v>
+      </c>
+      <c r="I24">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J24">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>32</v>
+      </c>
+      <c r="K24">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+      <c r="M24">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N24">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>187</v>
+      </c>
+      <c r="D25">
+        <v>261</v>
+      </c>
+      <c r="E25">
+        <v>149</v>
+      </c>
+      <c r="F25">
+        <v>257</v>
+      </c>
+      <c r="I25">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J25">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+      <c r="M25">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N25">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>33</v>
+      </c>
+      <c r="O25">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>187</v>
+      </c>
+      <c r="D26">
+        <v>261</v>
+      </c>
+      <c r="E26">
+        <v>149</v>
+      </c>
+      <c r="F26">
+        <v>257</v>
+      </c>
+      <c r="I26">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J26">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>34</v>
+      </c>
+      <c r="K26">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+      <c r="M26">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N26">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>34</v>
+      </c>
+      <c r="O26">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>281</v>
+      </c>
+      <c r="E27">
+        <v>149</v>
+      </c>
+      <c r="F27">
+        <v>277</v>
+      </c>
+      <c r="I27">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J27">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>281</v>
+      </c>
+      <c r="M27">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N27">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>35</v>
+      </c>
+      <c r="O27">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>187</v>
+      </c>
+      <c r="D28">
+        <v>294</v>
+      </c>
+      <c r="E28">
+        <v>149</v>
+      </c>
+      <c r="F28">
+        <v>289</v>
+      </c>
+      <c r="I28">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J28">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>36</v>
+      </c>
+      <c r="K28">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+      <c r="M28">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N28">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>36</v>
+      </c>
+      <c r="O28">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>187</v>
+      </c>
+      <c r="D29">
+        <v>294</v>
+      </c>
+      <c r="E29">
+        <v>149</v>
+      </c>
+      <c r="F29">
+        <v>289</v>
+      </c>
+      <c r="I29">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J29">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+      <c r="M29">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N29">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>37</v>
+      </c>
+      <c r="O29">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>187</v>
+      </c>
+      <c r="D30">
+        <v>294</v>
+      </c>
+      <c r="E30">
+        <v>149</v>
+      </c>
+      <c r="F30">
+        <v>289</v>
+      </c>
+      <c r="I30">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J30">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+      <c r="M30">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N30">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>38</v>
+      </c>
+      <c r="O30">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>187</v>
+      </c>
+      <c r="D31">
+        <v>337</v>
+      </c>
+      <c r="E31">
+        <v>149</v>
+      </c>
+      <c r="F31">
+        <v>326</v>
+      </c>
+      <c r="I31">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J31">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>337</v>
+      </c>
+      <c r="M31">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N31">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>39</v>
+      </c>
+      <c r="O31">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>248</v>
+      </c>
+      <c r="E32">
+        <v>149</v>
+      </c>
+      <c r="F32">
+        <v>245</v>
+      </c>
+      <c r="I32">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J32">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>248</v>
+      </c>
+      <c r="M32">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N32">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>40</v>
+      </c>
+      <c r="O32">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>187</v>
+      </c>
+      <c r="D33">
+        <v>188</v>
+      </c>
+      <c r="E33">
+        <v>149</v>
+      </c>
+      <c r="F33">
+        <v>185</v>
+      </c>
+      <c r="I33">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J33">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>188</v>
+      </c>
+      <c r="M33">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N33">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>41</v>
+      </c>
+      <c r="O33">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>188</v>
+      </c>
+      <c r="E34">
+        <v>149</v>
+      </c>
+      <c r="F34">
+        <v>185</v>
+      </c>
+      <c r="I34">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J34">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>188</v>
+      </c>
+      <c r="M34">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N34">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>42</v>
+      </c>
+      <c r="O34">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>187</v>
+      </c>
+      <c r="E35">
+        <v>149</v>
+      </c>
+      <c r="I35">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J35">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N35">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>43</v>
+      </c>
+      <c r="O35">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>187</v>
+      </c>
+      <c r="E36">
+        <v>149</v>
+      </c>
+      <c r="I36">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J36">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>44</v>
+      </c>
+      <c r="K36">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N36">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>44</v>
+      </c>
+      <c r="O36">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>187</v>
+      </c>
+      <c r="D37">
+        <v>228</v>
+      </c>
+      <c r="E37">
+        <v>149</v>
+      </c>
+      <c r="F37">
+        <v>225</v>
+      </c>
+      <c r="I37">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J37">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M37">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N37">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>45</v>
+      </c>
+      <c r="O37">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>187</v>
+      </c>
+      <c r="D38">
+        <v>228</v>
+      </c>
+      <c r="E38">
+        <v>149</v>
+      </c>
+      <c r="F38">
+        <v>225</v>
+      </c>
+      <c r="I38">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J38">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+      <c r="M38">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N38">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>46</v>
+      </c>
+      <c r="O38">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>187</v>
+      </c>
+      <c r="E39">
+        <v>149</v>
+      </c>
+      <c r="I39">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J39">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>47</v>
+      </c>
+      <c r="K39">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N39">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>47</v>
+      </c>
+      <c r="O39">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>187</v>
+      </c>
+      <c r="E40">
+        <v>149</v>
+      </c>
+      <c r="I40">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J40">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>48</v>
+      </c>
+      <c r="K40">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N40">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>48</v>
+      </c>
+      <c r="O40">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>187</v>
+      </c>
+      <c r="D41">
+        <v>114</v>
+      </c>
+      <c r="E41">
+        <v>149</v>
+      </c>
+      <c r="F41">
+        <v>112</v>
+      </c>
+      <c r="I41">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J41">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>49</v>
+      </c>
+      <c r="K41">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>114</v>
+      </c>
+      <c r="M41">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N41">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>49</v>
+      </c>
+      <c r="O41">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>187</v>
+      </c>
+      <c r="D42">
+        <v>114</v>
+      </c>
+      <c r="E42">
+        <v>149</v>
+      </c>
+      <c r="F42">
+        <v>112</v>
+      </c>
+      <c r="I42">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J42">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>114</v>
+      </c>
+      <c r="M42">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N42">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>187</v>
+      </c>
+      <c r="D43">
+        <v>156</v>
+      </c>
+      <c r="E43">
+        <v>149</v>
+      </c>
+      <c r="F43">
+        <v>154</v>
+      </c>
+      <c r="I43">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J43">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+      <c r="M43">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N43">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>51</v>
+      </c>
+      <c r="O43">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>187</v>
+      </c>
+      <c r="D44">
+        <v>156</v>
+      </c>
+      <c r="E44">
+        <v>149</v>
+      </c>
+      <c r="F44">
+        <v>154</v>
+      </c>
+      <c r="I44">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J44">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>52</v>
+      </c>
+      <c r="K44">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+      <c r="M44">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N44">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>52</v>
+      </c>
+      <c r="O44">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>187</v>
+      </c>
+      <c r="D45">
+        <v>207</v>
+      </c>
+      <c r="E45">
+        <v>149</v>
+      </c>
+      <c r="F45">
+        <v>204</v>
+      </c>
+      <c r="I45">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J45">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>53</v>
+      </c>
+      <c r="K45">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>207</v>
+      </c>
+      <c r="M45">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N45">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>53</v>
+      </c>
+      <c r="O45">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>187</v>
+      </c>
+      <c r="D46">
+        <v>156</v>
+      </c>
+      <c r="E46">
+        <v>149</v>
+      </c>
+      <c r="F46">
+        <v>154</v>
+      </c>
+      <c r="I46">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J46">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+      <c r="M46">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N46">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>54</v>
+      </c>
+      <c r="O46">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>187</v>
+      </c>
+      <c r="D47">
+        <v>172</v>
+      </c>
+      <c r="E47">
+        <v>149</v>
+      </c>
+      <c r="F47">
+        <v>172</v>
+      </c>
+      <c r="I47">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J47">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>55</v>
+      </c>
+      <c r="K47">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>172</v>
+      </c>
+      <c r="M47">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N47">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>55</v>
+      </c>
+      <c r="O47">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>187</v>
+      </c>
+      <c r="D48">
+        <v>187</v>
+      </c>
+      <c r="E48">
+        <v>149</v>
+      </c>
+      <c r="F48">
+        <v>185</v>
+      </c>
+      <c r="I48">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J48">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>187</v>
+      </c>
+      <c r="M48">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N48">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>56</v>
+      </c>
+      <c r="O48">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>187</v>
+      </c>
+      <c r="D49">
+        <v>171</v>
+      </c>
+      <c r="E49">
+        <v>149</v>
+      </c>
+      <c r="F49">
+        <v>169</v>
+      </c>
+      <c r="I49">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J49">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>57</v>
+      </c>
+      <c r="K49">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>171</v>
+      </c>
+      <c r="M49">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N49">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>57</v>
+      </c>
+      <c r="O49">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>187</v>
+      </c>
+      <c r="E50">
+        <v>149</v>
+      </c>
+      <c r="I50">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J50">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>58</v>
+      </c>
+      <c r="K50">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N50">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>58</v>
+      </c>
+      <c r="O50">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>187</v>
+      </c>
+      <c r="E51">
+        <v>149</v>
+      </c>
+      <c r="I51">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J51">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>59</v>
+      </c>
+      <c r="K51">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N51">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>59</v>
+      </c>
+      <c r="O51">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <v>149</v>
+      </c>
+      <c r="I52">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J52">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N52">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>60</v>
+      </c>
+      <c r="O52">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>187</v>
+      </c>
+      <c r="E53">
+        <v>149</v>
+      </c>
+      <c r="I53">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J53">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N53">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>61</v>
+      </c>
+      <c r="O53">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>187</v>
+      </c>
+      <c r="E54">
+        <v>149</v>
+      </c>
+      <c r="I54">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J54">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N54">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>62</v>
+      </c>
+      <c r="O54">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>187</v>
+      </c>
+      <c r="E55">
+        <v>149</v>
+      </c>
+      <c r="I55">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J55">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N55">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>63</v>
+      </c>
+      <c r="O55">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>187</v>
+      </c>
+      <c r="E56">
+        <v>149</v>
+      </c>
+      <c r="I56">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J56">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N56">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>64</v>
+      </c>
+      <c r="O56">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>187</v>
+      </c>
+      <c r="E57">
+        <v>149</v>
+      </c>
+      <c r="I57">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J57">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N57">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>65</v>
+      </c>
+      <c r="O57">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>187</v>
+      </c>
+      <c r="E58">
+        <v>149</v>
+      </c>
+      <c r="I58">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J58">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N58">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>66</v>
+      </c>
+      <c r="O58">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>187</v>
+      </c>
+      <c r="E59">
+        <v>149</v>
+      </c>
+      <c r="I59">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J59">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N59">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>67</v>
+      </c>
+      <c r="O59">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>187</v>
+      </c>
+      <c r="E60">
+        <v>149</v>
+      </c>
+      <c r="I60">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J60">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N60">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>68</v>
+      </c>
+      <c r="O60">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
+      </c>
+      <c r="C61">
+        <v>187</v>
+      </c>
+      <c r="E61">
+        <v>149</v>
+      </c>
+      <c r="I61">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="J61">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="N61">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>69</v>
+      </c>
+      <c r="O61">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B2">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B6">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B7">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B8">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B9">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B12">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B13">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B14">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B15">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B18">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B19">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B20">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B21">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B22">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B23">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B24">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B26">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B27">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B28">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B29">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B31">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B32">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B33">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B35">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B36">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B38">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B39">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B40">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B41">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B43">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B44">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B45">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B46">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B47">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B48">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>Tabla1[[#This Row],[CLIENTE]]</f>
+        <v>187</v>
+      </c>
+      <c r="B49">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <f>Tabla1[[#This Row],[32%]]</f>
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B4">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B8">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B10">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B14">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B15">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B16">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B18">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B19">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B20">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B21">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B23">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B24">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B25">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B27">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B28">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B29">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B30">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B31">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B32">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B34">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B36">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B38">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B41">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B42">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B43">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B45">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B46">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B47">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>Tabla1[[#This Row],[CLIENTE2]]</f>
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <f>Tabla1[[#This Row],[ID]]</f>
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <f>Tabla1[[#This Row],[33%]]</f>
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>